--- a/biology/Médecine/Clément_Launay/Clément_Launay.xlsx
+++ b/biology/Médecine/Clément_Launay/Clément_Launay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A9ment_Launay</t>
+          <t>Clément_Launay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clément Launay, né le 5 août 1901 dans le 8e arrondissement de Paris et mort le 26 octobre 1992 dans le 5e arrondissement de Paris, est un médecin pédiatre français, grand-père maternel de Jérôme Garcin. Comme médecin, il se spécialise en médecine d'enfants puis en neuro-psychiatrie d'enfants. Il était aussi chef de service à l'hôpital Hérold de Paris, professeur à la Faculté de médecine de Paris et membre de l'Académie nationale de médecine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clément Launay, né le 5 août 1901 dans le 8e arrondissement de Paris et mort le 26 octobre 1992 dans le 5e arrondissement de Paris, est un médecin pédiatre français, grand-père maternel de Jérôme Garcin. Comme médecin, il se spécialise en médecine d'enfants puis en neuro-psychiatrie d'enfants. Il était aussi chef de service à l'hôpital Hérold de Paris, professeur à la Faculté de médecine de Paris et membre de l'Académie nationale de médecine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A9ment_Launay</t>
+          <t>Clément_Launay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Précis de médecine infantile, Paris, Masson, 1948.
 L'adoption' : ses données médicales et psychosociales, Paris, ESF, 1954.
